--- a/Data/ESM/mindcog_v202202-2/Medoq_informatie_2.xlsx
+++ b/Data/ESM/mindcog_v202202-2/Medoq_informatie_2.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clemenskaiser/Documents/RUG/Thesis/EMA-mindfulness/Data/ESM/mindcog_v202202-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C078DE31-98FC-3749-9363-6C7B4F285133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5375B0-C7EB-234D-A4A6-7DE9132845CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26900" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positief fantseren" sheetId="1" r:id="rId1"/>
     <sheet name="Mindfulness" sheetId="2" r:id="rId2"/>
     <sheet name="All" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All!$A$1:$H$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mindfulness!$A$1:$H$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Positief fantseren'!$A$1:$H$70</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="371">
   <si>
     <t>ID Nummer</t>
   </si>
@@ -1156,7 +1161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1194,11 +1199,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Docs-Calibri"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1262,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -1278,15 +1278,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1509,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4480,6 +4477,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A1:H70" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4487,10 +4485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A60" sqref="A1:H76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4871,15 +4869,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>238</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>238</v>
@@ -4891,15 +4889,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>249</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>250</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>238</v>
@@ -4911,15 +4909,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>238</v>
@@ -4933,13 +4931,13 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>238</v>
@@ -4952,170 +4950,224 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
+      <c r="A22" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
+      <c r="A23" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
+      <c r="A24" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
+      <c r="A25" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="A26" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="A27" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>243</v>
+      <c r="A28" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -5136,22 +5188,20 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>245</v>
+      <c r="A29" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>91</v>
+        <v>278</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -5173,14 +5223,14 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -5206,15 +5256,15 @@
       <c r="Z30" s="5"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>259</v>
+      <c r="A31" s="13" t="s">
+        <v>283</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -5240,15 +5290,15 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>247</v>
+      <c r="A32" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -5274,15 +5324,15 @@
       <c r="Z32" s="5"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>249</v>
+      <c r="A33" s="11" t="s">
+        <v>289</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -5308,15 +5358,15 @@
       <c r="Z33" s="5"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>264</v>
+      <c r="A34" s="11" t="s">
+        <v>291</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>118</v>
+        <v>287</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -5341,106 +5391,152 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26">
-      <c r="A35" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
+      <c r="A36" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="B37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" t="s">
-        <v>362</v>
-      </c>
+      <c r="A37" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="B38" t="s">
-        <v>364</v>
-      </c>
-      <c r="D38" t="s">
-        <v>366</v>
-      </c>
+      <c r="A38" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -5466,15 +5562,15 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>270</v>
+      <c r="A40" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>271</v>
+        <v>165</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -5501,14 +5597,14 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -5534,15 +5630,15 @@
       <c r="Z41" s="5"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>275</v>
+      <c r="A42" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
@@ -5568,15 +5664,15 @@
       <c r="Z42" s="5"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>277</v>
+      <c r="A43" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -5602,15 +5698,15 @@
       <c r="Z43" s="5"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="13" t="s">
-        <v>280</v>
+      <c r="A44" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
@@ -5636,15 +5732,15 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>283</v>
+      <c r="A45" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -5670,15 +5766,15 @@
       <c r="Z45" s="5"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="12" t="s">
-        <v>286</v>
+      <c r="A46" s="5" t="s">
+        <v>321</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -5704,15 +5800,15 @@
       <c r="Z46" s="5"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>289</v>
+      <c r="A47" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -5738,15 +5834,15 @@
       <c r="Z47" s="5"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="12" t="s">
-        <v>291</v>
+      <c r="A48" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -5771,640 +5867,178 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>293</v>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>329</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>330</v>
+      </c>
       <c r="D49" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>296</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>333</v>
+      </c>
       <c r="D50" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A51" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-    </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-    </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-    </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-    </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-    </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A57" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A58" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A59" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A61" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A62" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A63" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="B63" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A51" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="D51" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A65" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="D58" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A66" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="B66" s="3" t="s">
+      <c r="D59" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="D60" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="D61" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A73" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A75" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1"/>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -7312,21 +6946,8 @@
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A1:H62" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -7334,17 +6955,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -7371,11 +6997,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -7401,7 +7027,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -7425,7 +7051,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -7451,7 +7077,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -7475,7 +7101,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -7501,7 +7127,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7525,7 +7151,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -7551,7 +7177,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -7575,7 +7201,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -7599,7 +7225,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -7619,11 +7245,11 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -7649,7 +7275,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -7673,7 +7299,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -7697,7 +7323,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -7721,7 +7347,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -7745,7 +7371,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+    <row r="17" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -7769,7 +7395,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+    <row r="18" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -7793,7 +7419,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+    <row r="19" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -7817,7 +7443,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+    <row r="20" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -7841,7 +7467,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -7865,7 +7491,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -7889,7 +7515,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -7913,7 +7539,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -7937,7 +7563,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -7961,7 +7587,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -7985,7 +7611,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -8009,7 +7635,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -8033,7 +7659,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
@@ -8057,7 +7683,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
@@ -8081,7 +7707,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -8105,7 +7731,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>87</v>
       </c>
@@ -8129,7 +7755,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
@@ -8189,11 +7815,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+    <row r="36" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -8207,11 +7833,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+    <row r="37" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -8225,7 +7851,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+    <row r="38" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>105</v>
       </c>
@@ -8243,11 +7869,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+    <row r="39" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -8261,11 +7887,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -8279,7 +7905,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+    <row r="41" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>113</v>
       </c>
@@ -8297,7 +7923,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+    <row r="42" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>116</v>
       </c>
@@ -8315,7 +7941,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+    <row r="43" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>119</v>
       </c>
@@ -8333,7 +7959,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+    <row r="44" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="5" t="s">
         <v>122</v>
       </c>
@@ -8351,7 +7977,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>124</v>
       </c>
@@ -8369,7 +7995,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+    <row r="46" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>127</v>
       </c>
@@ -8387,7 +8013,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+    <row r="47" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>130</v>
       </c>
@@ -8405,7 +8031,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+    <row r="48" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>133</v>
       </c>
@@ -8423,11 +8049,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -8441,7 +8067,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>139</v>
       </c>
@@ -8459,7 +8085,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+    <row r="51" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>142</v>
       </c>
@@ -8477,11 +8103,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+    <row r="52" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -8495,7 +8121,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+    <row r="53" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>147</v>
       </c>
@@ -8513,7 +8139,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+    <row r="54" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>150</v>
       </c>
@@ -8531,11 +8157,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+    <row r="55" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -8549,7 +8175,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+    <row r="56" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>156</v>
       </c>
@@ -8567,7 +8193,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+    <row r="57" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>158</v>
       </c>
@@ -8585,7 +8211,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+    <row r="58" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>160</v>
       </c>
@@ -8603,7 +8229,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+    <row r="59" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>163</v>
       </c>
@@ -8621,11 +8247,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>164</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -8639,11 +8265,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -8657,11 +8283,11 @@
         <v>368</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -8675,7 +8301,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+    <row r="63" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>174</v>
       </c>
@@ -8693,7 +8319,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+    <row r="64" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>177</v>
       </c>
@@ -8711,7 +8337,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+    <row r="65" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>179</v>
       </c>
@@ -8729,7 +8355,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+    <row r="66" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>182</v>
       </c>
@@ -8747,7 +8373,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+    <row r="67" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>185</v>
       </c>
@@ -8765,7 +8391,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+    <row r="68" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>188</v>
       </c>
@@ -8783,7 +8409,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+    <row r="69" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>191</v>
       </c>
@@ -8801,7 +8427,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+    <row r="70" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>194</v>
       </c>
@@ -8819,7 +8445,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+    <row r="71" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>197</v>
       </c>
@@ -8845,7 +8471,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+    <row r="72" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>202</v>
       </c>
@@ -8864,11 +8490,11 @@
       <c r="G72" s="1">
         <v>1</v>
       </c>
-      <c r="H72" s="17" t="s">
+      <c r="H72" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+    <row r="73" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>205</v>
       </c>
@@ -8894,7 +8520,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+    <row r="74" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>207</v>
       </c>
@@ -8913,11 +8539,11 @@
       <c r="G74" s="1">
         <v>1</v>
       </c>
-      <c r="H74" s="17" t="s">
+      <c r="H74" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+    <row r="75" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>211</v>
       </c>
@@ -8940,7 +8566,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+    <row r="76" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>216</v>
       </c>
@@ -8959,11 +8585,11 @@
       <c r="G76" s="1">
         <v>1</v>
       </c>
-      <c r="H76" s="17" t="s">
+      <c r="H76" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+    <row r="77" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>220</v>
       </c>
@@ -8982,11 +8608,11 @@
       <c r="G77" s="1">
         <v>2</v>
       </c>
-      <c r="H77" s="17" t="s">
+      <c r="H77" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+    <row r="78" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>224</v>
       </c>
@@ -9005,11 +8631,11 @@
       <c r="G78" s="1">
         <v>2</v>
       </c>
-      <c r="H78" s="17" t="s">
+      <c r="H78" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+    <row r="79" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>228</v>
       </c>
@@ -9032,7 +8658,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+    <row r="80" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>230</v>
       </c>
@@ -9055,7 +8681,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+    <row r="81" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>232</v>
       </c>
@@ -9078,7 +8704,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1">
+    <row r="82" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>234</v>
       </c>
@@ -9097,11 +8723,11 @@
       <c r="G82" s="1">
         <v>1</v>
       </c>
-      <c r="H82" s="17" t="s">
+      <c r="H82" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+    <row r="83" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>237</v>
       </c>
@@ -9124,7 +8750,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+    <row r="84" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>242</v>
       </c>
@@ -9147,7 +8773,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+    <row r="85" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>244</v>
       </c>
@@ -9170,7 +8796,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>246</v>
       </c>
@@ -9239,7 +8865,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1">
+    <row r="89" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -9262,7 +8888,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+    <row r="90" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
@@ -9285,7 +8911,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1">
+    <row r="91" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>248</v>
       </c>
@@ -9308,7 +8934,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1">
+    <row r="92" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>250</v>
       </c>
@@ -9331,7 +8957,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+    <row r="93" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>252</v>
       </c>
@@ -9354,7 +8980,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1">
+    <row r="94" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>254</v>
       </c>
@@ -9377,7 +9003,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>242</v>
       </c>
@@ -9393,7 +9019,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1">
+    <row r="96" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>237</v>
       </c>
@@ -9409,11 +9035,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1">
+    <row r="97" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -9427,11 +9053,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1">
+    <row r="98" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>245</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -9445,11 +9071,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1">
+    <row r="99" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="11" t="s">
         <v>256</v>
       </c>
       <c r="C99" s="5" t="s">
@@ -9463,7 +9089,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1">
+    <row r="100" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>261</v>
       </c>
@@ -9481,11 +9107,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1">
+    <row r="101" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>247</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -9499,11 +9125,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1">
+    <row r="102" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -9517,7 +9143,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1">
+    <row r="103" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>265</v>
       </c>
@@ -9535,11 +9161,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1">
+    <row r="104" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C104" s="5" t="s">
@@ -9553,11 +9179,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1">
+    <row r="105" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="11" t="s">
         <v>253</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -9571,11 +9197,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1">
+    <row r="106" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" t="s">
         <v>362</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="15" t="s">
         <v>365</v>
       </c>
       <c r="C106" t="s">
@@ -9585,11 +9211,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1">
+    <row r="107" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" t="s">
         <v>366</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="15" t="s">
         <v>363</v>
       </c>
       <c r="C107" t="s">
@@ -9599,7 +9225,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1">
+    <row r="108" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>269</v>
       </c>
@@ -9617,7 +9243,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1">
+    <row r="109" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>272</v>
       </c>
@@ -9635,7 +9261,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1">
+    <row r="110" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="5" t="s">
         <v>274</v>
       </c>
@@ -9653,11 +9279,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1">
+    <row r="111" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -9671,7 +9297,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1">
+    <row r="112" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>279</v>
       </c>
@@ -9689,11 +9315,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1">
+    <row r="113" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="12" t="s">
         <v>280</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -9707,11 +9333,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1">
+    <row r="114" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="13" t="s">
         <v>283</v>
       </c>
       <c r="C114" s="5" t="s">
@@ -9725,11 +9351,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1">
+    <row r="115" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="11" t="s">
         <v>286</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -9743,11 +9369,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1">
+    <row r="116" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="11" t="s">
         <v>289</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -9761,11 +9387,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1">
+    <row r="117" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>291</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -9779,7 +9405,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1">
+    <row r="118" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>295</v>
       </c>
@@ -9793,11 +9419,11 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="17" t="s">
+      <c r="H118" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1">
+    <row r="119" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>298</v>
       </c>
@@ -9811,15 +9437,15 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="17" t="s">
+      <c r="H119" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1">
+    <row r="120" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="11" t="s">
         <v>299</v>
       </c>
       <c r="C120" s="5" t="s">
@@ -9833,11 +9459,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1">
+    <row r="121" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -9851,7 +9477,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1">
+    <row r="122" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="5" t="s">
         <v>305</v>
       </c>
@@ -9869,11 +9495,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1">
+    <row r="123" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="11" t="s">
         <v>306</v>
       </c>
       <c r="C123" s="5" t="s">
@@ -9887,7 +9513,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1">
+    <row r="124" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>309</v>
       </c>
@@ -9905,7 +9531,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1">
+    <row r="125" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="5" t="s">
         <v>311</v>
       </c>
@@ -9923,11 +9549,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1">
+    <row r="126" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C126" s="5" t="s">
@@ -9941,7 +9567,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" customHeight="1">
+    <row r="127" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="5" t="s">
         <v>317</v>
       </c>
@@ -9959,11 +9585,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" customHeight="1">
+    <row r="128" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -9977,7 +9603,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15.75" customHeight="1">
+    <row r="129" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="5" t="s">
         <v>322</v>
       </c>
@@ -9995,7 +9621,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75" customHeight="1">
+    <row r="130" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="5" t="s">
         <v>325</v>
       </c>
@@ -10013,7 +9639,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75" customHeight="1">
+    <row r="131" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="5" t="s">
         <v>328</v>
       </c>
@@ -10031,11 +9657,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75" customHeight="1">
+    <row r="132" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="14" t="s">
         <v>329</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -10045,11 +9671,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.75" customHeight="1">
+    <row r="133" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="14" t="s">
         <v>332</v>
       </c>
       <c r="C133" s="3" t="s">
@@ -10059,11 +9685,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" customHeight="1">
+    <row r="134" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="14" t="s">
         <v>335</v>
       </c>
       <c r="C134" s="3" t="s">
@@ -10073,11 +9699,11 @@
         <v>369</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" customHeight="1">
+    <row r="135" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="14" t="s">
         <v>337</v>
       </c>
       <c r="C135" s="3" t="s">
@@ -10087,7 +9713,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75" customHeight="1">
+    <row r="136" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>342</v>
       </c>
@@ -10101,7 +9727,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75" customHeight="1">
+    <row r="137" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>345</v>
       </c>
@@ -10115,7 +9741,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" customHeight="1">
+    <row r="138" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>347</v>
       </c>
@@ -10129,7 +9755,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75" customHeight="1">
+    <row r="139" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>349</v>
       </c>
@@ -10143,7 +9769,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75" customHeight="1">
+    <row r="140" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>351</v>
       </c>
@@ -10157,7 +9783,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75" customHeight="1">
+    <row r="141" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="3" t="s">
         <v>353</v>
       </c>
@@ -10171,7 +9797,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.75" customHeight="1">
+    <row r="142" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="3" t="s">
         <v>355</v>
       </c>
@@ -10185,7 +9811,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75" customHeight="1">
+    <row r="143" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="3" t="s">
         <v>357</v>
       </c>
@@ -10199,7 +9825,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75" customHeight="1">
+    <row r="144" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="3" t="s">
         <v>359</v>
       </c>
@@ -10213,7 +9839,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.75" customHeight="1">
+    <row r="145" spans="1:8" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>361</v>
       </c>
@@ -11082,6 +10708,14 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A1:H145" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="S156_g2_m1"/>
+        <filter val="S156_g2_m2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
